--- a/biology/Zoologie/Howaia/Howaia.xlsx
+++ b/biology/Zoologie/Howaia/Howaia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Howaia est un genre d'araignées aranéomorphes de la famille des Nesticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Howaia est un genre d'araignées aranéomorphes de la famille des Nesticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie[1]. Howaia mogera a été introduite en Europe, en Océanie et à Sainte-Hélène.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie. Howaia mogera a été introduite en Europe, en Océanie et à Sainte-Hélène.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 13/08/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 13/08/2023) :
 Howaia alba Ballarin &amp; Eguchi, 2023
 Howaia apiculata (Liu &amp; Li, 2013)
 Howaia fuliangensis (Lin, Ballarin &amp; Li, 2016)
@@ -582,9 +598,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Lehtinen et Saaristo en 1980 dans les Nesticidae. Il est placé en synonymie avec Nesticella par Wunderlich en 1986[2]. Il est relevé de synonymie par Sherwood, Jocqué, Henrard et Fowler en 2023[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Lehtinen et Saaristo en 1980 dans les Nesticidae. Il est placé en synonymie avec Nesticella par Wunderlich en 1986. Il est relevé de synonymie par Sherwood, Jocqué, Henrard et Fowler en 2023.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lehtinen &amp; Saaristo, 1980 : « Spiders of the Oriental-Australian region. II. Nesticidae. » Annales Zoologici Fennici, vol. 17, no 1, p. 47-66.</t>
         </is>
